--- a/TPV_Source/test2.xlsx
+++ b/TPV_Source/test2.xlsx
@@ -34,7 +34,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>17.04.2018, Tue</t>
+    <t>18.04.2018, Wed</t>
   </si>
 </sst>
 </file>
@@ -604,51 +604,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/TPV_Source/test2.xlsx
+++ b/TPV_Source/test2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Put your info here</t>
   </si>
@@ -35,6 +35,13 @@
   </si>
   <si>
     <t>18.04.2018, Wed</t>
+  </si>
+  <si>
+    <t>19.04.2018, Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -604,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +659,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test2.xlsx
+++ b/TPV_Source/test2.xlsx
@@ -55,7 +55,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>09.05.2018, Wed</t>
+    <t>10.05.2018, Thu</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -752,78 +752,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TPV_Source/test2.xlsx
+++ b/TPV_Source/test2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Chapt.No 03.2</t>
   </si>
@@ -55,11 +55,7 @@
     <t>Annet:</t>
   </si>
   <si>
-    <t>10.05.2018, Thu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t>13.05.2018, Sun</t>
   </si>
 </sst>
 </file>
@@ -752,79 +748,76 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/test2.xlsx
+++ b/TPV_Source/test2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Chapt.No 03.2</t>
   </si>
@@ -56,6 +56,13 @@
   </si>
   <si>
     <t>13.05.2018, Sun</t>
+  </si>
+  <si>
+    <t>14.05.2018, Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -748,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +827,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/TPV_Source/test2.xlsx
+++ b/TPV_Source/test2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Chapt.No 03.2</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>29.09.2018, Sat</t>
   </si>
 </sst>
 </file>
@@ -975,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K1"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1018,7 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:11"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1026,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,6 +1070,42 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:11"/>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
